--- a/Evaluation/POI_Data.xlsx
+++ b/Evaluation/POI_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Document\GitHub\fse2020verb.github.io\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9547A18-D785-4E7A-8F77-D455123DCE29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7372C3-807E-4043-A946-B4CD0E5B6008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,60 +33,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
   <si>
-    <t>V NP PP(for){.beneficiary}</t>
-  </si>
-  <si>
-    <t>V NP PP(from){.source}</t>
-  </si>
-  <si>
-    <t>V PP(to){.goal}</t>
-  </si>
-  <si>
-    <t>V NP</t>
-  </si>
-  <si>
     <t>V whether/if/that/when S</t>
   </si>
   <si>
-    <t>V NP PP(for) S_ING</t>
-  </si>
-  <si>
     <t>V if/whether/that/when/where S</t>
   </si>
   <si>
-    <t>V NP PP(into/to/as){.goal}</t>
-  </si>
-  <si>
-    <t>V NP PP(for){.theme}</t>
-  </si>
-  <si>
-    <t>V NP PP(in/within){.location}</t>
-  </si>
-  <si>
-    <t>V NP PP(to/as/into){.goal} PP(for){.beneficiary}</t>
-  </si>
-  <si>
-    <t>V NP PP(from/over){.source}</t>
-  </si>
-  <si>
-    <t>V NP PP(at/in/on/within){.location}</t>
-  </si>
-  <si>
-    <t>V NP PP(from/with/by/over/out of){.material}</t>
-  </si>
-  <si>
-    <t>V NP PP(for){.beneficiary} PP(on/in/at){.location}</t>
-  </si>
-  <si>
-    <t>V NP PP(to){.co-patient}</t>
-  </si>
-  <si>
-    <t>V NP PP(on/in/at/within){.location}</t>
-  </si>
-  <si>
-    <t>V NP PP(with/from){.instrument}</t>
-  </si>
-  <si>
     <t>Sentence</t>
   </si>
   <si>
@@ -366,9 +318,6 @@
     <t>Set an unambiguous reference to the resource within a given context.</t>
   </si>
   <si>
-    <t>set the value from an InputStream</t>
-  </si>
-  <si>
     <t>Sets the text placeholder</t>
   </si>
   <si>
@@ -379,15 +328,6 @@
   </si>
   <si>
     <t>---</t>
-  </si>
-  <si>
-    <t>V NP PP(for){.beneficiary} PP(at/in/on/within){.location}</t>
-  </si>
-  <si>
-    <t>V PP(from){.material}</t>
-  </si>
-  <si>
-    <t>V NP PP(as/to){.goal}</t>
   </si>
   <si>
     <t>Annotation f_category</t>
@@ -411,6 +351,69 @@
   </si>
   <si>
     <t>p_pattern correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V {patient}</t>
+  </si>
+  <si>
+    <t>set the value from an I{patient}utStream</t>
+  </si>
+  <si>
+    <t>V {patient} for {beneficiary}</t>
+  </si>
+  <si>
+    <t>V {patient} from {source}</t>
+  </si>
+  <si>
+    <t>V to {goal}</t>
+  </si>
+  <si>
+    <t>V {patient} for {theme}</t>
+  </si>
+  <si>
+    <t>V {patient} in/within {location}</t>
+  </si>
+  <si>
+    <t>V {patient} from/over {source}</t>
+  </si>
+  <si>
+    <t>V {patient} at/in/on/within {location}</t>
+  </si>
+  <si>
+    <t>V {patient} for {beneficiary} at/in/on/within {location}</t>
+  </si>
+  <si>
+    <t>V {patient} from/with/by/over/out of {material}</t>
+  </si>
+  <si>
+    <t>V from {material}</t>
+  </si>
+  <si>
+    <t>V {patient} for {beneficiary} on/in/at {location}</t>
+  </si>
+  <si>
+    <t>V {patient} to {co-patient}</t>
+  </si>
+  <si>
+    <t>V {patient} as/to {goal}</t>
+  </si>
+  <si>
+    <t>V {patient} on/in/at/within {location}</t>
+  </si>
+  <si>
+    <t>V {patient} with/from {instrument}</t>
+  </si>
+  <si>
+    <t>V {patient} for S_ING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V {source} into/to/as {goal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V {source} to/as/into {goal} for {beneficiary}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,50 +755,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -806,19 +809,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -829,19 +832,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1">
         <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -852,7 +855,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -862,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -873,19 +876,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -896,19 +899,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -919,19 +922,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D8" s="1">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -942,19 +945,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D9" s="1">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -965,19 +968,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -988,19 +991,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1011,19 +1014,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1034,19 +1037,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1057,19 +1060,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1080,7 +1083,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>10</v>
@@ -1090,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1101,19 +1104,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1">
         <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1124,7 +1127,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
@@ -1134,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -1155,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>10</v>
@@ -1176,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1187,19 +1190,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1210,19 +1213,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D21" s="1">
         <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1233,19 +1236,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1">
         <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1256,19 +1259,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1">
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1279,19 +1282,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1302,19 +1305,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>10</v>
@@ -1335,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1346,19 +1349,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>12</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D27" s="1">
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1369,19 +1372,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1392,19 +1395,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1">
         <v>59</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>10</v>
@@ -1425,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1436,19 +1439,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1">
         <v>12</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1459,19 +1462,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1482,19 +1485,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1">
         <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1505,19 +1508,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1">
         <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1528,19 +1531,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1">
         <v>12</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1551,19 +1554,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1">
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1">
         <v>12</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>10</v>
@@ -1584,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1595,7 +1598,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>10</v>
@@ -1605,7 +1608,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>10</v>
@@ -1626,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1637,19 +1640,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>14</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D40" s="1">
         <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1660,19 +1663,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1">
         <v>6</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1683,19 +1686,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>12</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1">
         <v>12</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1706,19 +1709,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1729,19 +1732,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>12</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D44" s="1">
         <v>12</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1752,19 +1755,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D45" s="1">
         <v>12</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1775,7 +1778,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>10</v>
@@ -1785,7 +1788,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1796,19 +1799,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1">
         <v>6</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>10</v>
@@ -1829,7 +1832,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1840,19 +1843,19 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D49" s="1">
         <v>61</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1863,19 +1866,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1">
         <v>6</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1886,19 +1889,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D51" s="1">
         <v>12</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1909,19 +1912,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D52" s="1">
         <v>12</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1932,19 +1935,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1">
         <v>12</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D53" s="1">
         <v>12</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>10</v>
@@ -1965,7 +1968,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1976,19 +1979,19 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D55" s="1">
         <v>6</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1999,19 +2002,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D56" s="1">
         <v>12</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2022,19 +2025,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>12</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2045,19 +2048,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>6</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D58" s="1">
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2068,19 +2071,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D59" s="1">
         <v>12</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2091,19 +2094,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D60" s="1">
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2114,19 +2117,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D61" s="1">
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2137,19 +2140,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1">
         <v>12</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2160,19 +2163,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2183,19 +2186,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D64" s="1">
         <v>6</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2206,19 +2209,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>12</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D65" s="1">
         <v>12</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2229,19 +2232,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>12</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1">
         <v>12</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2252,19 +2255,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>12</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D67" s="1">
         <v>12</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2275,19 +2278,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2298,19 +2301,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1">
         <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2321,19 +2324,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>6</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D70" s="1">
         <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2344,19 +2347,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>12</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D71" s="1">
         <v>12</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2367,7 +2370,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>10</v>
@@ -2377,7 +2380,7 @@
         <v>39</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2388,7 +2391,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>10</v>
@@ -2398,7 +2401,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -2409,19 +2412,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D74" s="1">
         <v>12</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -2432,19 +2435,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D75" s="1">
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>10</v>
@@ -2465,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2476,19 +2479,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>12</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D77" s="1">
         <v>12</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2499,19 +2502,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>12</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D78" s="1">
         <v>12</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2522,19 +2525,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1">
         <v>6</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2545,19 +2548,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2568,19 +2571,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>14</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1">
         <v>14</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2591,19 +2594,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>12</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D82" s="1">
         <v>12</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2614,19 +2617,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D83" s="1">
         <v>61</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2637,19 +2640,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D84" s="1">
         <v>12</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2660,19 +2663,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>10</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2683,19 +2686,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D86" s="1">
         <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2706,19 +2709,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D87" s="1">
         <v>6</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2729,19 +2732,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D88" s="1">
         <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2752,19 +2755,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D89" s="1">
         <v>6</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2775,19 +2778,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>12</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1">
         <v>12</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2798,19 +2801,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D91" s="1">
         <v>12</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2821,7 +2824,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>10</v>
@@ -2831,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2842,7 +2845,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>10</v>
@@ -2852,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2863,19 +2866,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D94" s="1">
         <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -2886,19 +2889,19 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D95" s="1">
         <v>12</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2909,19 +2912,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="D96" s="1">
         <v>6</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2932,19 +2935,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B97" s="1">
         <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D97" s="1">
         <v>12</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2955,19 +2958,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B98" s="1">
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="D98" s="1">
         <v>6</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2978,19 +2981,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B99" s="1">
         <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D99" s="1">
         <v>6</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3001,19 +3004,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B100" s="1">
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D100" s="1">
         <v>6</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3024,19 +3027,19 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B101" s="1">
         <v>30</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D101" s="1">
         <v>52</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="F101">
         <v>0</v>
